--- a/biology/Médecine/Hémopéricarde/Hémopéricarde.xlsx
+++ b/biology/Médecine/Hémopéricarde/Hémopéricarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mop%C3%A9ricarde</t>
+          <t>Hémopéricarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémopéricarde est un épanchement sanguin dans le péricarde qui est la membrane séreuse qui enveloppe le cœur. C'est de fait un épanchement péricardique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mop%C3%A9ricarde</t>
+          <t>Hémopéricarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être secondaire à une affection médicale ou iatrogénique ; la dissection aortique peut entraîner un hémopéricarde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être secondaire à une affection médicale ou iatrogénique ; la dissection aortique peut entraîner un hémopéricarde.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mop%C3%A9ricarde</t>
+          <t>Hémopéricarde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est essentiellement clinique. La biologie et l'écho-radiologie en apportent la confirmation.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mop%C3%A9ricarde</t>
+          <t>Hémopéricarde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le risque majeur en est la tamponnade cardiaque, qui est un épanchement péricardique compressif. C'est une urgence médico-chirurgicale.
 Il en existe deux formes[réf. souhaitée] :
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9mop%C3%A9ricarde</t>
+          <t>Hémopéricarde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors d'une cause majeure (infarctus du myocarde, enfoncement thoracique, plaie du cœur, etc.) qu'il faut évidemment traiter en urgence, les épanchements peu abondants (inférieurs à 50 ml) sont relativement bien tolérés, le traitement se limite alors à une surveillance clinique et échographique. 
 Les épanchement importants nécessitent une intervention de drainage péricardique.
